--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/CSS/Final Project 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59868819-63FD-CD47-912A-C8816EC8418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C405375D-FE99-7C4F-9592-5657752398B8}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
   <si>
     <t>Age</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t>MainUse</t>
   </si>
   <si>
@@ -105,6 +102,42 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Go</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop Go</t>
+  </si>
+  <si>
+    <t>MacBook Pro</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Book</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop</t>
+  </si>
+  <si>
+    <t>MacBook Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft </t>
+  </si>
+  <si>
+    <t>Samsung Galaxy Book</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Pro</t>
   </si>
 </sst>
 </file>
@@ -456,52 +489,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2227E79D-3539-434E-935A-B60F924CBFBC}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>59</v>
       </c>
       <c r="B2">
-        <v>80588</v>
+        <v>900</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -516,21 +561,24 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>32</v>
       </c>
       <c r="B3">
-        <v>79547</v>
+        <v>850</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -545,21 +593,24 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>610</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>76696</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -574,21 +625,24 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>48</v>
       </c>
       <c r="B5">
-        <v>98438</v>
+        <v>3560</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -603,21 +657,24 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>38</v>
       </c>
       <c r="B6">
-        <v>44236</v>
+        <v>2300</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -632,21 +689,24 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>48</v>
       </c>
       <c r="B7">
-        <v>42895</v>
+        <v>1340</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -661,21 +721,24 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55</v>
       </c>
       <c r="B8">
-        <v>73767</v>
+        <v>1640</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>19</v>
@@ -690,21 +753,24 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>78158</v>
+        <v>600</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -719,21 +785,24 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>62</v>
       </c>
       <c r="B10">
-        <v>44390</v>
+        <v>1000</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -748,21 +817,24 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22</v>
       </c>
       <c r="B11">
-        <v>76306</v>
+        <v>1300</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>13</v>
@@ -777,21 +849,24 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>61566</v>
+        <v>1370</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -806,21 +881,24 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>53</v>
       </c>
       <c r="B13">
-        <v>96365</v>
+        <v>3200</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -835,21 +913,24 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>47480</v>
+        <v>890</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -864,21 +945,24 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>52</v>
       </c>
       <c r="B15">
-        <v>57092</v>
+        <v>1120</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>21</v>
@@ -893,21 +977,24 @@
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>60</v>
       </c>
       <c r="B16">
-        <v>59920</v>
+        <v>1000</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -922,21 +1009,24 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
         <v>10</v>
       </c>
-      <c r="I16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>59</v>
       </c>
       <c r="B17">
-        <v>95848</v>
+        <v>1340</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>12</v>
@@ -951,21 +1041,24 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>61</v>
       </c>
       <c r="B18">
-        <v>73212</v>
+        <v>1600</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>19</v>
@@ -980,21 +1073,24 @@
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19">
-        <v>40616</v>
+        <v>790</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1009,21 +1105,24 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>33</v>
       </c>
       <c r="B20">
-        <v>79965</v>
+        <v>3000</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1038,21 +1137,24 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>62</v>
       </c>
       <c r="B21">
-        <v>72537</v>
+        <v>1670</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>21</v>
@@ -1067,21 +1169,24 @@
         <v>6</v>
       </c>
       <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
         <v>10</v>
       </c>
-      <c r="I21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>54931</v>
+        <v>1300</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>14</v>
@@ -1096,21 +1201,24 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>33</v>
       </c>
       <c r="B23">
-        <v>59591</v>
+        <v>1350</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -1125,21 +1233,24 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>13</v>
       </c>
       <c r="B24">
-        <v>75265</v>
+        <v>780</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -1154,21 +1265,24 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>56</v>
       </c>
       <c r="B25">
-        <v>99091</v>
+        <v>1300</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25">
         <v>14</v>
@@ -1183,21 +1297,24 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>18</v>
       </c>
       <c r="B26">
-        <v>50313</v>
+        <v>1230</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>15</v>
@@ -1212,10 +1329,13 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/Final Project 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C405375D-FE99-7C4F-9592-5657752398B8}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836E76ED-C8AE-3B47-8BA3-ABC329AA4BE5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t>Age</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>MacBook Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft </t>
   </si>
   <si>
     <t>Samsung Galaxy Book</t>
@@ -492,7 +489,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -599,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -811,7 +808,7 @@
         <v>512</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -823,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -855,7 +852,7 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -887,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -983,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1015,7 +1012,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1079,7 +1076,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1207,7 +1204,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1239,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1323,7 +1320,7 @@
         <v>512</v>
       </c>
       <c r="F26">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G26">
         <v>1</v>

--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/Final Project 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{836E76ED-C8AE-3B47-8BA3-ABC329AA4BE5}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35706595-EBFD-7042-878B-1079D8E5BA35}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
         <v>55</v>
       </c>
       <c r="B8">
-        <v>1640</v>
+        <v>1120</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -956,7 +956,7 @@
         <v>52</v>
       </c>
       <c r="B15">
-        <v>1120</v>
+        <v>1640</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -977,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="I15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
         <v>26</v>

--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -187,6 +187,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,7 +493,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/Final Project 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35706595-EBFD-7042-878B-1079D8E5BA35}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47CA669-FC3F-BA49-A634-926275CE02C6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,6 +505,7 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -544,7 +545,7 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -879,7 +880,7 @@
         <v>16</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
@@ -1056,7 +1057,7 @@
         <v>61</v>
       </c>
       <c r="B18">
-        <v>1600</v>
+        <v>1090</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -1216,7 +1217,7 @@
         <v>33</v>
       </c>
       <c r="B23">
-        <v>1350</v>
+        <v>1090</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1228,7 +1229,7 @@
         <v>128</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G23">
         <v>2</v>

--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/941779feee7010d9/Columbia Summer School/Final Project 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D47CA669-FC3F-BA49-A634-926275CE02C6}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C40E466-54BE-9A42-ADD5-0C948BC66E6F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
   </bookViews>
@@ -110,31 +110,31 @@
     <t>Model</t>
   </si>
   <si>
-    <t>Microsoft Surface Go</t>
-  </si>
-  <si>
-    <t>Microsoft Surface Laptop Go</t>
-  </si>
-  <si>
-    <t>MacBook Pro</t>
-  </si>
-  <si>
-    <t>Microsoft Surface Book</t>
-  </si>
-  <si>
-    <t>Microsoft Surface Laptop</t>
-  </si>
-  <si>
-    <t>MacBook Air</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy Book</t>
-  </si>
-  <si>
-    <t>Lenovo Ideapad</t>
-  </si>
-  <si>
-    <t>Microsoft Surface Pro</t>
+    <t>SGB</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>MSG</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>MSP</t>
+  </si>
+  <si>
+    <t>MBP</t>
+  </si>
+  <si>
+    <t>MSLG</t>
+  </si>
+  <si>
+    <t>MSL</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -601,7 +601,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -633,7 +633,7 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -761,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
         <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1113,7 +1113,7 @@
         <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1145,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1209,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1241,7 +1241,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1273,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1337,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="153" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C40E466-54BE-9A42-ADD5-0C948BC66E6F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15520" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2227E79D-3539-434E-935A-B60F924CBFBC}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="153" documentId="8_{B948A1F4-2B86-1545-8D8C-FDF7E48149A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C40E466-54BE-9A42-ADD5-0C948BC66E6F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15520" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="14220" windowHeight="17200" xr2:uid="{D3A3EC57-73C9-D544-B3DC-53A174CB1CCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
